--- a/resource/30.analysis/320.environment/322.HappySteps_기능요구사항.xlsx
+++ b/resource/30.analysis/320.environment/322.HappySteps_기능요구사항.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecommerce\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.jupiter\resource\30.analysis\320.environment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1020,7 +1019,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1073,6 +1072,14 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1172,7 +1179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1227,17 +1234,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1250,6 +1257,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1533,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XEW168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G165"/>
+    <sheetView tabSelected="1" topLeftCell="C91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1585,13 +1598,13 @@
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E3" s="16" t="s">
@@ -1654,7 +1667,7 @@
       <c r="B7" s="20"/>
       <c r="C7" s="23"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>107</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -1669,7 +1682,7 @@
       <c r="B8" s="20"/>
       <c r="C8" s="23"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="8" t="s">
         <v>80</v>
       </c>
@@ -1697,10 +1710,10 @@
       <c r="B10" s="20"/>
       <c r="C10" s="23"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="27" t="s">
         <v>85</v>
       </c>
       <c r="G10" s="16"/>
@@ -1712,10 +1725,10 @@
       <c r="B11" s="20"/>
       <c r="C11" s="23"/>
       <c r="D11" s="20"/>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="27" t="s">
         <v>86</v>
       </c>
       <c r="G11" s="16"/>
@@ -1726,7 +1739,7 @@
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="21"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="16" t="s">
         <v>25</v>
       </c>
@@ -1923,7 +1936,7 @@
       <c r="D26" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>148</v>
       </c>
       <c r="F26" s="8" t="s">
@@ -1977,7 +1990,7 @@
       <c r="B30" s="20"/>
       <c r="C30" s="23"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="21"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="8" t="s">
         <v>66</v>
       </c>
@@ -2159,7 +2172,7 @@
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="23"/>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E43" s="16" t="s">
@@ -2206,7 +2219,7 @@
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="23"/>
-      <c r="D46" s="21"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="16" t="s">
         <v>153</v>
       </c>
@@ -2224,10 +2237,10 @@
       <c r="D47" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="27" t="s">
         <v>90</v>
       </c>
       <c r="G47" s="16"/>
@@ -2315,7 +2328,7 @@
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="23"/>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E53" s="17" t="s">
@@ -18818,7 +18831,7 @@
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="23"/>
-      <c r="D62" s="21"/>
+      <c r="D62" s="19"/>
       <c r="E62" s="16" t="s">
         <v>76</v>
       </c>
@@ -18950,10 +18963,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="20"/>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E71" s="16" t="s">
@@ -18969,7 +18982,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="20"/>
-      <c r="C72" s="18"/>
+      <c r="C72" s="21"/>
       <c r="D72" s="20"/>
       <c r="E72" s="16" t="s">
         <v>105</v>
@@ -18984,7 +18997,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="20"/>
-      <c r="C73" s="18"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="20"/>
       <c r="E73" s="16" t="s">
         <v>106</v>
@@ -18999,7 +19012,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="20"/>
-      <c r="C74" s="18"/>
+      <c r="C74" s="21"/>
       <c r="D74" s="20"/>
       <c r="E74" s="16" t="s">
         <v>10</v>
@@ -19014,9 +19027,9 @@
         <v>73</v>
       </c>
       <c r="B75" s="20"/>
-      <c r="C75" s="18"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="20"/>
-      <c r="E75" s="19" t="s">
+      <c r="E75" s="18" t="s">
         <v>107</v>
       </c>
       <c r="F75" s="8" t="s">
@@ -19029,9 +19042,9 @@
         <v>74</v>
       </c>
       <c r="B76" s="20"/>
-      <c r="C76" s="18"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="20"/>
-      <c r="E76" s="21"/>
+      <c r="E76" s="19"/>
       <c r="F76" s="8" t="s">
         <v>167</v>
       </c>
@@ -19042,7 +19055,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="18"/>
+      <c r="C77" s="21"/>
       <c r="D77" s="20"/>
       <c r="E77" s="16" t="s">
         <v>108</v>
@@ -19057,7 +19070,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="18"/>
+      <c r="C78" s="21"/>
       <c r="D78" s="20"/>
       <c r="E78" s="16" t="s">
         <v>143</v>
@@ -19072,7 +19085,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="18"/>
+      <c r="C79" s="21"/>
       <c r="D79" s="20"/>
       <c r="E79" s="16" t="s">
         <v>109</v>
@@ -19087,7 +19100,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="18"/>
+      <c r="C80" s="21"/>
       <c r="D80" s="20"/>
       <c r="E80" s="16" t="s">
         <v>25</v>
@@ -19102,7 +19115,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="18"/>
+      <c r="C81" s="21"/>
       <c r="D81" s="17" t="s">
         <v>8</v>
       </c>
@@ -19119,7 +19132,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="18"/>
+      <c r="C82" s="21"/>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
       <c r="F82" s="8" t="s">
@@ -19132,7 +19145,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="18"/>
+      <c r="C83" s="21"/>
       <c r="D83" s="17"/>
       <c r="E83" s="17"/>
       <c r="F83" s="8" t="s">
@@ -19145,7 +19158,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="18"/>
+      <c r="C84" s="21"/>
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
       <c r="F84" s="8" t="s">
@@ -19158,7 +19171,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="18"/>
+      <c r="C85" s="21"/>
       <c r="D85" s="17"/>
       <c r="E85" s="17" t="s">
         <v>13</v>
@@ -19173,7 +19186,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="18"/>
+      <c r="C86" s="21"/>
       <c r="D86" s="17"/>
       <c r="E86" s="17"/>
       <c r="F86" s="8" t="s">
@@ -19186,7 +19199,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="18"/>
+      <c r="C87" s="21"/>
       <c r="D87" s="17"/>
       <c r="E87" s="17"/>
       <c r="F87" s="8" t="s">
@@ -19199,7 +19212,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="18"/>
+      <c r="C88" s="21"/>
       <c r="D88" s="17"/>
       <c r="E88" s="17"/>
       <c r="F88" s="8" t="s">
@@ -19212,7 +19225,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="18"/>
+      <c r="C89" s="21"/>
       <c r="D89" s="17"/>
       <c r="E89" s="17"/>
       <c r="F89" s="8" t="s">
@@ -19225,7 +19238,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="20"/>
-      <c r="C90" s="18"/>
+      <c r="C90" s="21"/>
       <c r="D90" s="17"/>
       <c r="E90" s="17"/>
       <c r="F90" s="8" t="s">
@@ -19238,7 +19251,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="18"/>
+      <c r="C91" s="21"/>
       <c r="D91" s="17"/>
       <c r="E91" s="17" t="s">
         <v>14</v>
@@ -19253,7 +19266,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="20"/>
-      <c r="C92" s="18"/>
+      <c r="C92" s="21"/>
       <c r="D92" s="17"/>
       <c r="E92" s="17"/>
       <c r="F92" s="8" t="s">
@@ -19266,7 +19279,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="20"/>
-      <c r="C93" s="18"/>
+      <c r="C93" s="21"/>
       <c r="D93" s="17"/>
       <c r="E93" s="16" t="s">
         <v>110</v>
@@ -19281,11 +19294,11 @@
         <v>92</v>
       </c>
       <c r="B94" s="20"/>
-      <c r="C94" s="18"/>
+      <c r="C94" s="21"/>
       <c r="D94" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E94" s="19" t="s">
+      <c r="E94" s="18" t="s">
         <v>112</v>
       </c>
       <c r="F94" s="8" t="s">
@@ -19298,7 +19311,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="20"/>
-      <c r="C95" s="18"/>
+      <c r="C95" s="21"/>
       <c r="D95" s="17"/>
       <c r="E95" s="20"/>
       <c r="F95" s="8" t="s">
@@ -19311,7 +19324,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="20"/>
-      <c r="C96" s="18"/>
+      <c r="C96" s="21"/>
       <c r="D96" s="17"/>
       <c r="E96" s="20"/>
       <c r="F96" s="8" t="s">
@@ -19324,7 +19337,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="20"/>
-      <c r="C97" s="18"/>
+      <c r="C97" s="21"/>
       <c r="D97" s="17"/>
       <c r="E97" s="20"/>
       <c r="F97" s="8" t="s">
@@ -19337,9 +19350,9 @@
         <v>96</v>
       </c>
       <c r="B98" s="20"/>
-      <c r="C98" s="18"/>
+      <c r="C98" s="21"/>
       <c r="D98" s="17"/>
-      <c r="E98" s="21"/>
+      <c r="E98" s="19"/>
       <c r="F98" s="8" t="s">
         <v>66</v>
       </c>
@@ -19350,7 +19363,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="20"/>
-      <c r="C99" s="18"/>
+      <c r="C99" s="21"/>
       <c r="D99" s="17"/>
       <c r="E99" s="17" t="s">
         <v>17</v>
@@ -19365,7 +19378,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="20"/>
-      <c r="C100" s="18"/>
+      <c r="C100" s="21"/>
       <c r="D100" s="17"/>
       <c r="E100" s="17"/>
       <c r="F100" s="8" t="s">
@@ -19378,7 +19391,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="20"/>
-      <c r="C101" s="18"/>
+      <c r="C101" s="21"/>
       <c r="D101" s="17"/>
       <c r="E101" s="17"/>
       <c r="F101" s="11" t="s">
@@ -19391,7 +19404,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="20"/>
-      <c r="C102" s="18"/>
+      <c r="C102" s="21"/>
       <c r="D102" s="17"/>
       <c r="E102" s="17"/>
       <c r="F102" s="8" t="s">
@@ -19404,7 +19417,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="20"/>
-      <c r="C103" s="18"/>
+      <c r="C103" s="21"/>
       <c r="D103" s="17"/>
       <c r="E103" s="16" t="s">
         <v>114</v>
@@ -19419,7 +19432,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="20"/>
-      <c r="C104" s="18"/>
+      <c r="C104" s="21"/>
       <c r="D104" s="17"/>
       <c r="E104" s="16" t="s">
         <v>115</v>
@@ -19434,7 +19447,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="20"/>
-      <c r="C105" s="18"/>
+      <c r="C105" s="21"/>
       <c r="D105" s="17"/>
       <c r="E105" s="17" t="s">
         <v>22</v>
@@ -19449,7 +19462,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="20"/>
-      <c r="C106" s="18"/>
+      <c r="C106" s="21"/>
       <c r="D106" s="17"/>
       <c r="E106" s="17"/>
       <c r="F106" s="8" t="s">
@@ -19462,7 +19475,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="20"/>
-      <c r="C107" s="18"/>
+      <c r="C107" s="21"/>
       <c r="D107" s="17" t="s">
         <v>118</v>
       </c>
@@ -19479,7 +19492,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="20"/>
-      <c r="C108" s="18"/>
+      <c r="C108" s="21"/>
       <c r="D108" s="17"/>
       <c r="E108" s="17"/>
       <c r="F108" s="8" t="s">
@@ -19492,7 +19505,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="20"/>
-      <c r="C109" s="18"/>
+      <c r="C109" s="21"/>
       <c r="D109" s="17"/>
       <c r="E109" s="17"/>
       <c r="F109" s="8" t="s">
@@ -19505,7 +19518,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="20"/>
-      <c r="C110" s="18"/>
+      <c r="C110" s="21"/>
       <c r="D110" s="17"/>
       <c r="E110" s="16" t="s">
         <v>122</v>
@@ -19520,8 +19533,8 @@
         <v>109</v>
       </c>
       <c r="B111" s="20"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="19" t="s">
+      <c r="C111" s="21"/>
+      <c r="D111" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E111" s="16" t="s">
@@ -19537,7 +19550,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="20"/>
-      <c r="C112" s="18"/>
+      <c r="C112" s="21"/>
       <c r="D112" s="20"/>
       <c r="E112" s="16" t="s">
         <v>87</v>
@@ -19552,7 +19565,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="20"/>
-      <c r="C113" s="18"/>
+      <c r="C113" s="21"/>
       <c r="D113" s="20"/>
       <c r="E113" s="16" t="s">
         <v>89</v>
@@ -19567,8 +19580,8 @@
         <v>112</v>
       </c>
       <c r="B114" s="20"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="21"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="19"/>
       <c r="E114" s="16" t="s">
         <v>126</v>
       </c>
@@ -19582,7 +19595,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="20"/>
-      <c r="C115" s="18"/>
+      <c r="C115" s="21"/>
       <c r="D115" s="16" t="s">
         <v>127</v>
       </c>
@@ -19599,7 +19612,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="20"/>
-      <c r="C116" s="18"/>
+      <c r="C116" s="21"/>
       <c r="D116" s="17" t="s">
         <v>154</v>
       </c>
@@ -19616,7 +19629,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="20"/>
-      <c r="C117" s="18"/>
+      <c r="C117" s="21"/>
       <c r="D117" s="17"/>
       <c r="E117" s="16" t="s">
         <v>23</v>
@@ -19631,7 +19644,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="20"/>
-      <c r="C118" s="18"/>
+      <c r="C118" s="21"/>
       <c r="D118" s="17"/>
       <c r="E118" s="16" t="s">
         <v>24</v>
@@ -19646,7 +19659,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="20"/>
-      <c r="C119" s="18"/>
+      <c r="C119" s="21"/>
       <c r="D119" s="17"/>
       <c r="E119" s="16" t="s">
         <v>132</v>
@@ -19661,7 +19674,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="20"/>
-      <c r="C120" s="18"/>
+      <c r="C120" s="21"/>
       <c r="D120" s="17"/>
       <c r="E120" s="16" t="s">
         <v>177</v>
@@ -19676,8 +19689,8 @@
         <v>119</v>
       </c>
       <c r="B121" s="20"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="19" t="s">
+      <c r="C121" s="21"/>
+      <c r="D121" s="18" t="s">
         <v>179</v>
       </c>
       <c r="E121" s="17" t="s">
@@ -19693,7 +19706,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="20"/>
-      <c r="C122" s="18"/>
+      <c r="C122" s="21"/>
       <c r="D122" s="20"/>
       <c r="E122" s="17"/>
       <c r="F122" s="8" t="s">
@@ -19706,7 +19719,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="20"/>
-      <c r="C123" s="18"/>
+      <c r="C123" s="21"/>
       <c r="D123" s="20"/>
       <c r="E123" s="16" t="s">
         <v>183</v>
@@ -19721,7 +19734,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="20"/>
-      <c r="C124" s="18"/>
+      <c r="C124" s="21"/>
       <c r="D124" s="20"/>
       <c r="E124" s="16" t="s">
         <v>185</v>
@@ -19736,7 +19749,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="20"/>
-      <c r="C125" s="18"/>
+      <c r="C125" s="21"/>
       <c r="D125" s="20"/>
       <c r="E125" s="16" t="s">
         <v>187</v>
@@ -19751,7 +19764,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="20"/>
-      <c r="C126" s="18"/>
+      <c r="C126" s="21"/>
       <c r="D126" s="20"/>
       <c r="E126" s="16" t="s">
         <v>189</v>
@@ -19766,7 +19779,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="20"/>
-      <c r="C127" s="18"/>
+      <c r="C127" s="21"/>
       <c r="D127" s="20"/>
       <c r="E127" s="16" t="s">
         <v>191</v>
@@ -36151,7 +36164,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="20"/>
-      <c r="C128" s="18"/>
+      <c r="C128" s="21"/>
       <c r="D128" s="20"/>
       <c r="E128" s="17" t="s">
         <v>193</v>
@@ -36166,7 +36179,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="20"/>
-      <c r="C129" s="18"/>
+      <c r="C129" s="21"/>
       <c r="D129" s="20"/>
       <c r="E129" s="17"/>
       <c r="F129" s="8" t="s">
@@ -36179,8 +36192,8 @@
         <v>128</v>
       </c>
       <c r="B130" s="20"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="21"/>
+      <c r="C130" s="21"/>
+      <c r="D130" s="19"/>
       <c r="E130" s="16" t="s">
         <v>196</v>
       </c>
@@ -36194,7 +36207,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="20"/>
-      <c r="C131" s="18"/>
+      <c r="C131" s="21"/>
       <c r="D131" s="17" t="s">
         <v>198</v>
       </c>
@@ -36211,7 +36224,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="20"/>
-      <c r="C132" s="18"/>
+      <c r="C132" s="21"/>
       <c r="D132" s="17"/>
       <c r="E132" s="16" t="s">
         <v>201</v>
@@ -36226,7 +36239,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="20"/>
-      <c r="C133" s="18"/>
+      <c r="C133" s="21"/>
       <c r="D133" s="17"/>
       <c r="E133" s="16" t="s">
         <v>203</v>
@@ -36241,7 +36254,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="20"/>
-      <c r="C134" s="18"/>
+      <c r="C134" s="21"/>
       <c r="D134" s="17"/>
       <c r="E134" s="17" t="s">
         <v>205</v>
@@ -36256,7 +36269,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="20"/>
-      <c r="C135" s="18"/>
+      <c r="C135" s="21"/>
       <c r="D135" s="17"/>
       <c r="E135" s="17"/>
       <c r="F135" s="8" t="s">
@@ -36269,7 +36282,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="20"/>
-      <c r="C136" s="18"/>
+      <c r="C136" s="21"/>
       <c r="D136" s="17"/>
       <c r="E136" s="17"/>
       <c r="F136" s="8" t="s">
@@ -36282,7 +36295,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="20"/>
-      <c r="C137" s="18"/>
+      <c r="C137" s="21"/>
       <c r="D137" s="17"/>
       <c r="E137" s="16" t="s">
         <v>209</v>
@@ -36297,7 +36310,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="20"/>
-      <c r="C138" s="18"/>
+      <c r="C138" s="21"/>
       <c r="D138" s="17"/>
       <c r="E138" s="16" t="s">
         <v>211</v>
@@ -36315,7 +36328,7 @@
       <c r="C139" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="D139" s="19" t="s">
+      <c r="D139" s="18" t="s">
         <v>214</v>
       </c>
       <c r="E139" s="16" t="s">
@@ -36332,7 +36345,7 @@
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="17"/>
-      <c r="D140" s="21"/>
+      <c r="D140" s="19"/>
       <c r="E140" s="16" t="s">
         <v>217</v>
       </c>
@@ -36347,7 +36360,7 @@
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="17"/>
-      <c r="D141" s="19" t="s">
+      <c r="D141" s="18" t="s">
         <v>219</v>
       </c>
       <c r="E141" s="16" t="s">
@@ -36410,7 +36423,7 @@
       <c r="B145" s="20"/>
       <c r="C145" s="17"/>
       <c r="D145" s="20"/>
-      <c r="E145" s="19" t="s">
+      <c r="E145" s="18" t="s">
         <v>224</v>
       </c>
       <c r="F145" s="8" t="s">
@@ -36424,8 +36437,8 @@
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="17"/>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
       <c r="F146" s="8" t="s">
         <v>226</v>
       </c>
@@ -36437,7 +36450,7 @@
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="17"/>
-      <c r="D147" s="19" t="s">
+      <c r="D147" s="18" t="s">
         <v>227</v>
       </c>
       <c r="E147" s="16" t="s">
@@ -36469,7 +36482,7 @@
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="17"/>
-      <c r="D149" s="21"/>
+      <c r="D149" s="19"/>
       <c r="E149" s="16" t="s">
         <v>231</v>
       </c>
@@ -36484,7 +36497,7 @@
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="17"/>
-      <c r="D150" s="19" t="s">
+      <c r="D150" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E150" s="16" t="s">
@@ -36502,7 +36515,7 @@
       <c r="B151" s="20"/>
       <c r="C151" s="17"/>
       <c r="D151" s="20"/>
-      <c r="E151" s="19" t="s">
+      <c r="E151" s="18" t="s">
         <v>23</v>
       </c>
       <c r="F151" s="8" t="s">
@@ -36516,8 +36529,8 @@
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="17"/>
-      <c r="D152" s="21"/>
-      <c r="E152" s="21"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
       <c r="F152" s="8" t="s">
         <v>45</v>
       </c>
@@ -36529,13 +36542,13 @@
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="17"/>
-      <c r="D153" s="19" t="s">
+      <c r="D153" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E153" s="16" t="s">
+      <c r="E153" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="F153" s="8" t="s">
+      <c r="F153" s="27" t="s">
         <v>96</v>
       </c>
       <c r="G153" s="16"/>
@@ -36546,11 +36559,11 @@
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="17"/>
-      <c r="D154" s="21"/>
-      <c r="E154" s="16" t="s">
+      <c r="D154" s="19"/>
+      <c r="E154" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="F154" s="8" t="s">
+      <c r="F154" s="27" t="s">
         <v>97</v>
       </c>
       <c r="G154" s="16"/>
@@ -36581,10 +36594,10 @@
       <c r="D156" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F156" s="8" t="s">
+      <c r="F156" s="27" t="s">
         <v>101</v>
       </c>
       <c r="G156" s="16"/>
@@ -36595,7 +36608,7 @@
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="17"/>
-      <c r="D157" s="19" t="s">
+      <c r="D157" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E157" s="16" t="s">
@@ -36657,7 +36670,7 @@
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="17"/>
-      <c r="D161" s="21"/>
+      <c r="D161" s="19"/>
       <c r="E161" s="16" t="s">
         <v>237</v>
       </c>
@@ -36672,10 +36685,10 @@
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="17"/>
-      <c r="D162" s="19" t="s">
+      <c r="D162" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E162" s="19" t="s">
+      <c r="E162" s="18" t="s">
         <v>65</v>
       </c>
       <c r="F162" s="8" t="s">
@@ -36690,7 +36703,7 @@
       <c r="B163" s="20"/>
       <c r="C163" s="17"/>
       <c r="D163" s="20"/>
-      <c r="E163" s="21"/>
+      <c r="E163" s="19"/>
       <c r="F163" s="8" t="s">
         <v>239</v>
       </c>
@@ -36715,9 +36728,9 @@
       <c r="A165" s="8">
         <v>163</v>
       </c>
-      <c r="B165" s="21"/>
+      <c r="B165" s="19"/>
       <c r="C165" s="17"/>
-      <c r="D165" s="21"/>
+      <c r="D165" s="19"/>
       <c r="E165" s="16" t="s">
         <v>42</v>
       </c>
@@ -36741,24 +36754,25 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="E134:E136"/>
-    <mergeCell ref="C139:C165"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="D141:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="D150:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="D157:D161"/>
-    <mergeCell ref="D162:D165"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="D111:D114"/>
-    <mergeCell ref="D116:D120"/>
-    <mergeCell ref="D121:D130"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="D53:D62"/>
+    <mergeCell ref="D131:D138"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:B165"/>
+    <mergeCell ref="C3:C70"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D13:D25"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D26:D38"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D48:D52"/>
     <mergeCell ref="E53:E54"/>
     <mergeCell ref="E60:E61"/>
     <mergeCell ref="D63:D70"/>
@@ -36775,25 +36789,24 @@
     <mergeCell ref="E99:E102"/>
     <mergeCell ref="E105:E106"/>
     <mergeCell ref="D107:D110"/>
-    <mergeCell ref="B3:B165"/>
-    <mergeCell ref="C3:C70"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D13:D25"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D26:D38"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="D53:D62"/>
-    <mergeCell ref="D131:D138"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="D111:D114"/>
+    <mergeCell ref="D116:D120"/>
+    <mergeCell ref="D121:D130"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="C139:C165"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="D141:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="D147:D149"/>
+    <mergeCell ref="D150:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="D157:D161"/>
+    <mergeCell ref="D162:D165"/>
+    <mergeCell ref="E162:E163"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
